--- a/Resources/2008/Basic_Percentile_2008.xlsx
+++ b/Resources/2008/Basic_Percentile_2008.xlsx
@@ -1471,7 +1471,7 @@
     <t>Vince Carter</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Andrei Kirilenko</t>
@@ -1507,7 +1507,7 @@
     <t>Amar'e Stoudemire</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Stephen Jackson</t>
@@ -1525,7 +1525,7 @@
     <t>Rashard Lewis</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Chris Kaman</t>
@@ -1540,7 +1540,7 @@
     <t>Luol Deng</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Mike Dunleavy</t>
@@ -1633,7 +1633,7 @@
     <t>Boris Diaw</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Chauncey Billups</t>
@@ -1681,7 +1681,7 @@
     <t>Travis Outlaw</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Corey Maggette</t>
@@ -1696,7 +1696,7 @@
     <t>Chris Wilcox</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Antonio McDyess</t>
@@ -1816,7 +1816,7 @@
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Earl Watson</t>
@@ -1861,7 +1861,7 @@
     <t>David Harrison</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Ben Gordon</t>
@@ -2017,7 +2017,7 @@
     <t>Derek Fisher</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Jarrett Jack</t>
